--- a/infect-server/src/main/resources/templates/个人信息导出表.xlsx
+++ b/infect-server/src/main/resources/templates/个人信息导出表.xlsx
@@ -358,7 +358,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -519,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,133 +904,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,19 +1053,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1061,16 +1074,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1390,7 +1403,7 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,15 +1415,15 @@
     <col min="12" max="12" width="9" style="11"/>
     <col min="13" max="13" width="20.1833333333333" style="11" customWidth="1"/>
     <col min="14" max="15" width="9" style="11"/>
-    <col min="16" max="16" width="14.7333333333333" style="11" customWidth="1"/>
+    <col min="16" max="16" width="14.725" style="11" customWidth="1"/>
     <col min="17" max="17" width="17.5416666666667" style="11" customWidth="1"/>
-    <col min="18" max="18" width="8.73333333333333" style="11"/>
+    <col min="18" max="18" width="8.725" style="11"/>
     <col min="19" max="33" width="9" style="11"/>
-    <col min="34" max="34" width="8.73333333333333" style="11"/>
+    <col min="34" max="34" width="8.725" style="11"/>
     <col min="35" max="35" width="7.90833333333333" style="11" customWidth="1"/>
-    <col min="36" max="39" width="8.73333333333333" style="11"/>
+    <col min="36" max="39" width="8.725" style="11"/>
     <col min="40" max="40" width="9" style="11"/>
-    <col min="41" max="44" width="8.73333333333333" style="11"/>
+    <col min="41" max="44" width="8.725" style="11"/>
     <col min="45" max="53" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2467,8 +2480,8 @@
   <sheetPr/>
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/infect-server/src/main/resources/templates/个人信息导出表.xlsx
+++ b/infect-server/src/main/resources/templates/个人信息导出表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21094" windowHeight="9805"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息导出表" sheetId="2" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +368,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -526,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,12 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,137 +891,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,19 +1040,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1074,20 +1061,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,31 +1384,31 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="13.8166666666667" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.8198198198198" style="11" customWidth="1"/>
     <col min="8" max="10" width="9" style="11"/>
-    <col min="11" max="11" width="11.9083333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.9099099099099" style="11" customWidth="1"/>
     <col min="12" max="12" width="9" style="11"/>
-    <col min="13" max="13" width="20.1833333333333" style="11" customWidth="1"/>
+    <col min="13" max="13" width="20.1801801801802" style="11" customWidth="1"/>
     <col min="14" max="15" width="9" style="11"/>
-    <col min="16" max="16" width="14.725" style="11" customWidth="1"/>
-    <col min="17" max="17" width="17.5416666666667" style="11" customWidth="1"/>
-    <col min="18" max="18" width="8.725" style="11"/>
+    <col min="16" max="16" width="14.7207207207207" style="11" customWidth="1"/>
+    <col min="17" max="17" width="17.5405405405405" style="11" customWidth="1"/>
+    <col min="18" max="18" width="8.72072072072072" style="11"/>
     <col min="19" max="33" width="9" style="11"/>
-    <col min="34" max="34" width="8.725" style="11"/>
-    <col min="35" max="35" width="7.90833333333333" style="11" customWidth="1"/>
-    <col min="36" max="39" width="8.725" style="11"/>
+    <col min="34" max="34" width="8.72072072072072" style="11"/>
+    <col min="35" max="35" width="7.90990990990991" style="11" customWidth="1"/>
+    <col min="36" max="39" width="8.72072072072072" style="11"/>
     <col min="40" max="40" width="9" style="11"/>
-    <col min="41" max="44" width="8.725" style="11"/>
+    <col min="41" max="44" width="8.72072072072072" style="11"/>
     <col min="45" max="53" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="54" spans="1:53">
+    <row r="1" s="1" customFormat="1" ht="70.7" spans="1:53">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1657,8 +1638,8 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -1712,8 +1693,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -1767,8 +1748,8 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -1822,8 +1803,8 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -1877,8 +1858,8 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -1932,8 +1913,8 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -1987,8 +1968,8 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
@@ -2042,8 +2023,8 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -2097,8 +2078,8 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -2152,8 +2133,8 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -2207,8 +2188,8 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
@@ -2262,8 +2243,8 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -2317,8 +2298,8 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -2372,8 +2353,8 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -2427,8 +2408,8 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -2480,13 +2461,13 @@
   <sheetPr/>
   <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="AV2:BA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="54" spans="1:53">
+    <row r="1" s="1" customFormat="1" ht="70.7" spans="1:53">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="54" spans="1:53">
+    <row r="2" s="2" customFormat="1" ht="56.55" spans="1:53">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>53</v>
